--- a/Test_format_good.xlsx
+++ b/Test_format_good.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-49300" yWindow="7180" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-49300" yWindow="7180" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>Worksheet description</t>
   </si>
   <si>
-    <t>Worksheet type</t>
-  </si>
-  <si>
     <t>My data table</t>
   </si>
   <si>
@@ -321,13 +318,16 @@
   <si>
     <t>Numeric</t>
   </si>
+  <si>
+    <t>Worksheet format</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -416,7 +416,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -832,18 +832,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -894,7 +894,7 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -905,15 +905,15 @@
         <v>71</v>
       </c>
       <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
         <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -953,7 +953,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>
@@ -1531,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1560,18 +1560,18 @@
         <v>26</v>
       </c>
       <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1592,12 +1592,12 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -1666,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1687,7 +1687,7 @@
         <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
         <v>47</v>
@@ -1699,10 +1699,10 @@
         <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" ref="L7:L70" ca="1" si="1">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="L21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="L22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2567,7 +2567,7 @@
       </c>
       <c r="L24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="L26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2727,7 +2727,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="L29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="L38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="L39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="L40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="L42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="L43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="L44" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="L45" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="L47" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="L48" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="L50" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="L51" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="L52" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="L54" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="L55" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="L57" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="L58" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="L59" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="L60" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="L61" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="L62" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="L63" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="L64" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4207,7 +4207,7 @@
       </c>
       <c r="L65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="L66" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="L67" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="L69" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="L71" t="str">
         <f t="shared" ref="L71:L134" ca="1" si="3">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="L72" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="L73" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="L75" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="L76" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="L80" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="L81" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="L83" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="L86" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="L89" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="L90" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="L92" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="L93" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="L94" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="L95" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="L96" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="L97" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="L98" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="L99" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="L100" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="L101" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="L102" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="L103" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="L105" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="L106" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="L107" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="L110" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -6087,7 +6087,7 @@
       </c>
       <c r="L112" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="L113" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="L114" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="L115" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="L117" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="L118" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="L119" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -6407,7 +6407,7 @@
       </c>
       <c r="L120" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="L121" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="L122" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="L123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6567,7 +6567,7 @@
       </c>
       <c r="L124" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6607,7 +6607,7 @@
       </c>
       <c r="L125" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="L126" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6755,7 +6755,7 @@
       </c>
       <c r="L129" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="L130" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="L131" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6903,7 +6903,7 @@
       </c>
       <c r="L133" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="L134" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="L135" t="str">
         <f t="shared" ref="L135:L198" ca="1" si="5">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="L136" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="L137" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="L138" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="L139" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -7162,7 +7162,7 @@
       </c>
       <c r="L140" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="L141" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="L144" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="L145" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -7421,7 +7421,7 @@
       </c>
       <c r="L147" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="L148" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="L149" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7532,7 +7532,7 @@
       </c>
       <c r="L150" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="L151" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="L153" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="L155" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="L156" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="L157" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="L158" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="L159" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="L161" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="L162" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="L163" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -8050,7 +8050,7 @@
       </c>
       <c r="L164" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -8087,7 +8087,7 @@
       </c>
       <c r="L165" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="L166" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="L167" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="L168" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -8235,7 +8235,7 @@
       </c>
       <c r="L169" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -8272,7 +8272,7 @@
       </c>
       <c r="L170" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="L172" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -8383,7 +8383,7 @@
       </c>
       <c r="L173" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="L174" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="L175" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -8494,7 +8494,7 @@
       </c>
       <c r="L176" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="L177" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="L178" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="L179" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="L180" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="L182" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="L183" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="L184" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="L185" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="L186" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="L187" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="L188" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="L189" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="L191" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="L193" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="L194" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="L195" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="L197" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="L198" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="L199" t="str">
         <f t="shared" ref="L199:L262" ca="1" si="7">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -9419,7 +9419,7 @@
       </c>
       <c r="L201" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9456,7 +9456,7 @@
       </c>
       <c r="L202" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L203" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="L204" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="L205" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9604,7 +9604,7 @@
       </c>
       <c r="L206" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="L207" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="L208" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9752,7 +9752,7 @@
       </c>
       <c r="L210" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="L211" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="L212" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="L213" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="L214" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="L215" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -9977,7 +9977,7 @@
       </c>
       <c r="L216" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="L218" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="L221" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="L222" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="L223" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="L225" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="L227" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="L228" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="229" spans="1:12">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="L229" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="L230" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="231" spans="1:12">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="L231" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="232" spans="1:12">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="L232" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="233" spans="1:12">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="L233" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="234" spans="1:12">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="L234" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="235" spans="1:12">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="L235" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="236" spans="1:12">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="L236" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="237" spans="1:12">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="L238" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="239" spans="1:12">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="L239" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="240" spans="1:12">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="L240" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="L241" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -11017,7 +11017,7 @@
       </c>
       <c r="L242" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="L243" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="L244" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="L245" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="L246" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="L249" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11377,7 +11377,7 @@
       </c>
       <c r="L251" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="L252" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="L253" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="L254" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11537,7 +11537,7 @@
       </c>
       <c r="L255" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="L256" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="L257" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="L258" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="L259" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11737,7 +11737,7 @@
       </c>
       <c r="L260" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="L261" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11857,7 +11857,7 @@
       </c>
       <c r="L263" t="str">
         <f t="shared" ref="L263:L326" ca="1" si="9">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11897,7 +11897,7 @@
       </c>
       <c r="L264" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="L266" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="L267" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="L268" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -12097,7 +12097,7 @@
       </c>
       <c r="L269" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="L270" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="L272" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="L273" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="L275" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="L276" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="L277" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L278" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12497,7 +12497,7 @@
       </c>
       <c r="L279" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="L280" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="L281" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="L282" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12657,7 +12657,7 @@
       </c>
       <c r="L283" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="L284" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="L285" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="L286" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -12817,7 +12817,7 @@
       </c>
       <c r="L287" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="L288" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -12937,7 +12937,7 @@
       </c>
       <c r="L290" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="L292" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="L295" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -13217,7 +13217,7 @@
       </c>
       <c r="L297" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="L298" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -13297,7 +13297,7 @@
       </c>
       <c r="L299" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="L300" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="L301" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -13417,7 +13417,7 @@
       </c>
       <c r="L302" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="L305" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="L306" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="L307" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -13657,7 +13657,7 @@
       </c>
       <c r="L308" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -13777,7 +13777,7 @@
       </c>
       <c r="L311" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="312" spans="1:12">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="L312" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="313" spans="1:12">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="L313" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="314" spans="1:12">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="L314" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="315" spans="1:12">
@@ -13937,7 +13937,7 @@
       </c>
       <c r="L315" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="316" spans="1:12">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="L316" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -14017,7 +14017,7 @@
       </c>
       <c r="L317" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -14057,7 +14057,7 @@
       </c>
       <c r="L318" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="319" spans="1:12">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="L320" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="321" spans="1:12">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="L322" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -14257,7 +14257,7 @@
       </c>
       <c r="L323" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="324" spans="1:12">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="L324" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="325" spans="1:12">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="L325" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="326" spans="1:12">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="L326" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -14417,7 +14417,7 @@
       </c>
       <c r="L327" t="str">
         <f t="shared" ref="L327:L390" ca="1" si="11">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="328" spans="1:12">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="L328" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -14497,7 +14497,7 @@
       </c>
       <c r="L329" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="330" spans="1:12">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L330" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="331" spans="1:12">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="L333" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="334" spans="1:12">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="L334" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="335" spans="1:12">
@@ -14737,7 +14737,7 @@
       </c>
       <c r="L335" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="336" spans="1:12">
@@ -14777,7 +14777,7 @@
       </c>
       <c r="L336" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="337" spans="1:12">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="L337" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="338" spans="1:12">
@@ -14857,7 +14857,7 @@
       </c>
       <c r="L338" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="339" spans="1:12">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="L339" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="L340" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="341" spans="1:12">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="L341" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="342" spans="1:12">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="L342" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="343" spans="1:12">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="L344" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="345" spans="1:12">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="L345" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="346" spans="1:12">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="L346" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="347" spans="1:12">
@@ -15217,7 +15217,7 @@
       </c>
       <c r="L347" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="L349" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -15337,7 +15337,7 @@
       </c>
       <c r="L350" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -15377,7 +15377,7 @@
       </c>
       <c r="L351" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="L352" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -15457,7 +15457,7 @@
       </c>
       <c r="L353" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -15497,7 +15497,7 @@
       </c>
       <c r="L354" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="L355" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L356" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="L358" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -15697,7 +15697,7 @@
       </c>
       <c r="L359" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="L360" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="L361" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -15857,7 +15857,7 @@
       </c>
       <c r="L363" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="L364" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="L365" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -15977,7 +15977,7 @@
       </c>
       <c r="L366" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="L367" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="368" spans="1:12">
@@ -16057,7 +16057,7 @@
       </c>
       <c r="L368" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L369" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="L370" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="L372" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="373" spans="1:12">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="L373" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="374" spans="1:12">
@@ -16297,7 +16297,7 @@
       </c>
       <c r="L374" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -16337,7 +16337,7 @@
       </c>
       <c r="L375" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="376" spans="1:12">
@@ -16377,7 +16377,7 @@
       </c>
       <c r="L376" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -16417,7 +16417,7 @@
       </c>
       <c r="L377" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="378" spans="1:12">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="L379" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -16617,7 +16617,7 @@
       </c>
       <c r="L382" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="L383" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="384" spans="1:12">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="L384" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -16737,7 +16737,7 @@
       </c>
       <c r="L385" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -16777,7 +16777,7 @@
       </c>
       <c r="L386" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="387" spans="1:12">
@@ -16817,7 +16817,7 @@
       </c>
       <c r="L387" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="388" spans="1:12">
@@ -16897,7 +16897,7 @@
       </c>
       <c r="L389" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="390" spans="1:12">
@@ -16937,7 +16937,7 @@
       </c>
       <c r="L390" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="391" spans="1:12">
@@ -16977,7 +16977,7 @@
       </c>
       <c r="L391" t="str">
         <f t="shared" ref="L391:L454" ca="1" si="13">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="392" spans="1:12">
@@ -17017,7 +17017,7 @@
       </c>
       <c r="L392" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -17057,7 +17057,7 @@
       </c>
       <c r="L393" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="394" spans="1:12">
@@ -17097,7 +17097,7 @@
       </c>
       <c r="L394" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="L395" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="396" spans="1:12">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="L396" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="397" spans="1:12">
@@ -17257,7 +17257,7 @@
       </c>
       <c r="L398" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="L399" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -17537,7 +17537,7 @@
       </c>
       <c r="L405" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="406" spans="1:12">
@@ -17617,7 +17617,7 @@
       </c>
       <c r="L407" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="408" spans="1:12">
@@ -17737,7 +17737,7 @@
       </c>
       <c r="L410" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="411" spans="1:12">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="L412" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="413" spans="1:12">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="L413" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="414" spans="1:12">
@@ -17897,7 +17897,7 @@
       </c>
       <c r="L414" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="415" spans="1:12">
@@ -17937,7 +17937,7 @@
       </c>
       <c r="L415" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="416" spans="1:12">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="L416" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="417" spans="1:12">
@@ -18017,7 +18017,7 @@
       </c>
       <c r="L417" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="418" spans="1:12">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="L418" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="419" spans="1:12">
@@ -18097,7 +18097,7 @@
       </c>
       <c r="L419" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="420" spans="1:12">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="L421" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="422" spans="1:12">
@@ -18217,7 +18217,7 @@
       </c>
       <c r="L422" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="423" spans="1:12">
@@ -18257,7 +18257,7 @@
       </c>
       <c r="L423" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="424" spans="1:12">
@@ -18337,7 +18337,7 @@
       </c>
       <c r="L425" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -18497,7 +18497,7 @@
       </c>
       <c r="L429" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="430" spans="1:12">
@@ -18537,7 +18537,7 @@
       </c>
       <c r="L430" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -18577,7 +18577,7 @@
       </c>
       <c r="L431" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -18617,7 +18617,7 @@
       </c>
       <c r="L432" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="433" spans="1:12">
@@ -18697,7 +18697,7 @@
       </c>
       <c r="L434" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -18737,7 +18737,7 @@
       </c>
       <c r="L435" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -18777,7 +18777,7 @@
       </c>
       <c r="L436" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -18817,7 +18817,7 @@
       </c>
       <c r="L437" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -18857,7 +18857,7 @@
       </c>
       <c r="L438" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -18977,7 +18977,7 @@
       </c>
       <c r="L441" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -19017,7 +19017,7 @@
       </c>
       <c r="L442" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="443" spans="1:12">
@@ -19057,7 +19057,7 @@
       </c>
       <c r="L443" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="444" spans="1:12">
@@ -19097,7 +19097,7 @@
       </c>
       <c r="L444" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="445" spans="1:12">
@@ -19217,7 +19217,7 @@
       </c>
       <c r="L447" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="448" spans="1:12">
@@ -19257,7 +19257,7 @@
       </c>
       <c r="L448" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="449" spans="1:12">
@@ -19297,7 +19297,7 @@
       </c>
       <c r="L449" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -19377,7 +19377,7 @@
       </c>
       <c r="L451" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="L452" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -19457,7 +19457,7 @@
       </c>
       <c r="L453" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="454" spans="1:12">
@@ -19537,7 +19537,7 @@
       </c>
       <c r="L455" t="str">
         <f t="shared" ref="L455:L518" ca="1" si="15">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="456" spans="1:12">
@@ -19577,7 +19577,7 @@
       </c>
       <c r="L456" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="457" spans="1:12">
@@ -19657,7 +19657,7 @@
       </c>
       <c r="L458" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="L459" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -19737,7 +19737,7 @@
       </c>
       <c r="L460" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -19777,7 +19777,7 @@
       </c>
       <c r="L461" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="L462" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -20017,7 +20017,7 @@
       </c>
       <c r="L467" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -20057,7 +20057,7 @@
       </c>
       <c r="L468" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -20137,7 +20137,7 @@
       </c>
       <c r="L470" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -20377,7 +20377,7 @@
       </c>
       <c r="L476" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20457,7 +20457,7 @@
       </c>
       <c r="L478" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20537,7 +20537,7 @@
       </c>
       <c r="L480" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20617,7 +20617,7 @@
       </c>
       <c r="L482" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -20697,7 +20697,7 @@
       </c>
       <c r="L484" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="L485" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -20777,7 +20777,7 @@
       </c>
       <c r="L486" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -20817,7 +20817,7 @@
       </c>
       <c r="L487" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="L488" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -20897,7 +20897,7 @@
       </c>
       <c r="L489" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="L490" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -20977,7 +20977,7 @@
       </c>
       <c r="L491" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -21017,7 +21017,7 @@
       </c>
       <c r="L492" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -21057,7 +21057,7 @@
       </c>
       <c r="L493" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -21097,7 +21097,7 @@
       </c>
       <c r="L494" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -21137,7 +21137,7 @@
       </c>
       <c r="L495" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -21217,7 +21217,7 @@
       </c>
       <c r="L497" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -21257,7 +21257,7 @@
       </c>
       <c r="L498" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -21337,7 +21337,7 @@
       </c>
       <c r="L500" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21377,7 +21377,7 @@
       </c>
       <c r="L501" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="L502" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21457,7 +21457,7 @@
       </c>
       <c r="L503" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21537,7 +21537,7 @@
       </c>
       <c r="L505" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21817,7 +21817,7 @@
       </c>
       <c r="L512" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -21897,7 +21897,7 @@
       </c>
       <c r="L514" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -21937,7 +21937,7 @@
       </c>
       <c r="L515" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -22057,7 +22057,7 @@
       </c>
       <c r="L518" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -22137,7 +22137,7 @@
       </c>
       <c r="L520" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -22177,7 +22177,7 @@
       </c>
       <c r="L521" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -22217,7 +22217,7 @@
       </c>
       <c r="L522" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -22257,7 +22257,7 @@
       </c>
       <c r="L523" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -22297,7 +22297,7 @@
       </c>
       <c r="L524" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -22497,7 +22497,7 @@
       </c>
       <c r="L529" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22537,7 +22537,7 @@
       </c>
       <c r="L530" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22617,7 +22617,7 @@
       </c>
       <c r="L532" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22657,7 +22657,7 @@
       </c>
       <c r="L533" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="534" spans="1:12">
@@ -22737,7 +22737,7 @@
       </c>
       <c r="L535" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="536" spans="1:12">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="L536" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -22817,7 +22817,7 @@
       </c>
       <c r="L537" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="538" spans="1:12">
@@ -22857,7 +22857,7 @@
       </c>
       <c r="L538" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="539" spans="1:12">
@@ -22897,7 +22897,7 @@
       </c>
       <c r="L539" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="540" spans="1:12">
@@ -22937,7 +22937,7 @@
       </c>
       <c r="L540" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="541" spans="1:12">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="L541" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="542" spans="1:12">
@@ -23017,7 +23017,7 @@
       </c>
       <c r="L542" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="543" spans="1:12">
@@ -23057,7 +23057,7 @@
       </c>
       <c r="L543" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="544" spans="1:12">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="L544" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="545" spans="1:12">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="L545" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="546" spans="1:12">
@@ -23177,7 +23177,7 @@
       </c>
       <c r="L546" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="547" spans="1:12">
@@ -23217,7 +23217,7 @@
       </c>
       <c r="L547" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="548" spans="1:12">
@@ -23257,7 +23257,7 @@
       </c>
       <c r="L548" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="549" spans="1:12">
@@ -23297,7 +23297,7 @@
       </c>
       <c r="L549" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="550" spans="1:12">
@@ -23377,7 +23377,7 @@
       </c>
       <c r="L551" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="552" spans="1:12">
@@ -23457,7 +23457,7 @@
       </c>
       <c r="L553" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="554" spans="1:12">
@@ -23497,7 +23497,7 @@
       </c>
       <c r="L554" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="555" spans="1:12">
@@ -23537,7 +23537,7 @@
       </c>
       <c r="L555" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="556" spans="1:12">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="L556" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="557" spans="1:12">
@@ -23617,7 +23617,7 @@
       </c>
       <c r="L557" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="558" spans="1:12">
@@ -23657,7 +23657,7 @@
       </c>
       <c r="L558" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="559" spans="1:12">
@@ -23697,7 +23697,7 @@
       </c>
       <c r="L559" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="560" spans="1:12">
@@ -23817,7 +23817,7 @@
       </c>
       <c r="L562" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="563" spans="1:12">
@@ -23857,7 +23857,7 @@
       </c>
       <c r="L563" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="564" spans="1:12">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="L564" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="565" spans="1:12">
@@ -23977,7 +23977,7 @@
       </c>
       <c r="L566" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="567" spans="1:12">
@@ -24017,7 +24017,7 @@
       </c>
       <c r="L567" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="568" spans="1:12">
@@ -24057,7 +24057,7 @@
       </c>
       <c r="L568" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="569" spans="1:12">
@@ -24097,7 +24097,7 @@
       </c>
       <c r="L569" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="570" spans="1:12">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="L570" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="571" spans="1:12">
@@ -24177,7 +24177,7 @@
       </c>
       <c r="L571" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="572" spans="1:12">
@@ -24217,7 +24217,7 @@
       </c>
       <c r="L572" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="573" spans="1:12">
@@ -24257,7 +24257,7 @@
       </c>
       <c r="L573" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="574" spans="1:12">
@@ -24297,7 +24297,7 @@
       </c>
       <c r="L574" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="575" spans="1:12">
@@ -24337,7 +24337,7 @@
       </c>
       <c r="L575" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="576" spans="1:12">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="L577" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="578" spans="1:12">
@@ -24457,7 +24457,7 @@
       </c>
       <c r="L578" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="579" spans="1:12">
@@ -24497,7 +24497,7 @@
       </c>
       <c r="L579" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="580" spans="1:12">
@@ -24617,7 +24617,7 @@
       </c>
       <c r="L582" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="583" spans="1:12">
@@ -24697,7 +24697,7 @@
       </c>
       <c r="L584" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="585" spans="1:12">
@@ -24777,7 +24777,7 @@
       </c>
       <c r="L586" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="587" spans="1:12">
@@ -24817,7 +24817,7 @@
       </c>
       <c r="L587" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="588" spans="1:12">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="L588" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="589" spans="1:12">
@@ -24897,7 +24897,7 @@
       </c>
       <c r="L589" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="590" spans="1:12">
@@ -24937,7 +24937,7 @@
       </c>
       <c r="L590" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="591" spans="1:12">
@@ -24977,7 +24977,7 @@
       </c>
       <c r="L591" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="592" spans="1:12">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="L592" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="593" spans="1:12">
@@ -25057,7 +25057,7 @@
       </c>
       <c r="L593" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="594" spans="1:12">
@@ -25097,7 +25097,7 @@
       </c>
       <c r="L594" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="595" spans="1:12">
@@ -25137,7 +25137,7 @@
       </c>
       <c r="L595" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="596" spans="1:12">
@@ -25177,7 +25177,7 @@
       </c>
       <c r="L596" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="597" spans="1:12">
@@ -25337,7 +25337,7 @@
       </c>
       <c r="L600" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="601" spans="1:12">
@@ -25377,7 +25377,7 @@
       </c>
       <c r="L601" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="602" spans="1:12">
@@ -25417,7 +25417,7 @@
       </c>
       <c r="L602" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="603" spans="1:12">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="L603" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="604" spans="1:12">
@@ -25537,7 +25537,7 @@
       </c>
       <c r="L605" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="606" spans="1:12">
@@ -25577,7 +25577,7 @@
       </c>
       <c r="L606" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="607" spans="1:12">
@@ -25617,7 +25617,7 @@
       </c>
       <c r="L607" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="608" spans="1:12">
@@ -25657,7 +25657,7 @@
       </c>
       <c r="L608" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="609" spans="1:12">
@@ -25697,7 +25697,7 @@
       </c>
       <c r="L609" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="610" spans="1:12">
@@ -25737,7 +25737,7 @@
       </c>
       <c r="L610" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="611" spans="1:12">
@@ -25857,7 +25857,7 @@
       </c>
       <c r="L613" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="614" spans="1:12">
@@ -25937,7 +25937,7 @@
       </c>
       <c r="L615" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="616" spans="1:12">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="L616" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="617" spans="1:12">
@@ -26017,7 +26017,7 @@
       </c>
       <c r="L617" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="618" spans="1:12">
@@ -26057,7 +26057,7 @@
       </c>
       <c r="L618" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="619" spans="1:12">
@@ -26137,7 +26137,7 @@
       </c>
       <c r="L620" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="621" spans="1:12">
@@ -26177,7 +26177,7 @@
       </c>
       <c r="L621" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="622" spans="1:12">
@@ -26257,7 +26257,7 @@
       </c>
       <c r="L623" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="624" spans="1:12">
@@ -26297,7 +26297,7 @@
       </c>
       <c r="L624" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="625" spans="1:12">
@@ -26337,7 +26337,7 @@
       </c>
       <c r="L625" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="626" spans="1:12">
@@ -26417,7 +26417,7 @@
       </c>
       <c r="L627" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="628" spans="1:12">
@@ -26497,7 +26497,7 @@
       </c>
       <c r="L629" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="630" spans="1:12">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="L630" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="631" spans="1:12">
@@ -26577,7 +26577,7 @@
       </c>
       <c r="L631" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="632" spans="1:12">
@@ -26657,7 +26657,7 @@
       </c>
       <c r="L633" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="634" spans="1:12">
@@ -26737,7 +26737,7 @@
       </c>
       <c r="L635" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="636" spans="1:12">
@@ -26777,7 +26777,7 @@
       </c>
       <c r="L636" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="637" spans="1:12">
@@ -26937,7 +26937,7 @@
       </c>
       <c r="L640" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="641" spans="1:12">
@@ -26977,7 +26977,7 @@
       </c>
       <c r="L641" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="642" spans="1:12">
@@ -27017,7 +27017,7 @@
       </c>
       <c r="L642" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="643" spans="1:12">
@@ -27057,7 +27057,7 @@
       </c>
       <c r="L643" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="644" spans="1:12">
@@ -27097,7 +27097,7 @@
       </c>
       <c r="L644" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="645" spans="1:12">
@@ -27137,7 +27137,7 @@
       </c>
       <c r="L645" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="646" spans="1:12">
@@ -27177,7 +27177,7 @@
       </c>
       <c r="L646" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="647" spans="1:12">
@@ -27217,7 +27217,7 @@
       </c>
       <c r="L647" t="str">
         <f t="shared" ref="L647:L710" ca="1" si="21">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="648" spans="1:12">
@@ -27337,7 +27337,7 @@
       </c>
       <c r="L650" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="651" spans="1:12">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="L651" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="652" spans="1:12">
@@ -27457,7 +27457,7 @@
       </c>
       <c r="L653" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="654" spans="1:12">
@@ -27497,7 +27497,7 @@
       </c>
       <c r="L654" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="655" spans="1:12">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="L658" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="659" spans="1:12">
@@ -27697,7 +27697,7 @@
       </c>
       <c r="L659" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="660" spans="1:12">
@@ -27737,7 +27737,7 @@
       </c>
       <c r="L660" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="661" spans="1:12">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="L661" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="662" spans="1:12">
@@ -27817,7 +27817,7 @@
       </c>
       <c r="L662" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="663" spans="1:12">
@@ -27857,7 +27857,7 @@
       </c>
       <c r="L663" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="664" spans="1:12">
@@ -27897,7 +27897,7 @@
       </c>
       <c r="L664" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="665" spans="1:12">
@@ -27937,7 +27937,7 @@
       </c>
       <c r="L665" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="666" spans="1:12">
@@ -27977,7 +27977,7 @@
       </c>
       <c r="L666" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="667" spans="1:12">
@@ -28017,7 +28017,7 @@
       </c>
       <c r="L667" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="668" spans="1:12">
@@ -28057,7 +28057,7 @@
       </c>
       <c r="L668" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="669" spans="1:12">
@@ -28137,7 +28137,7 @@
       </c>
       <c r="L670" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="671" spans="1:12">
@@ -28297,7 +28297,7 @@
       </c>
       <c r="L674" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="675" spans="1:12">
@@ -28337,7 +28337,7 @@
       </c>
       <c r="L675" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="676" spans="1:12">
@@ -28417,7 +28417,7 @@
       </c>
       <c r="L677" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="678" spans="1:12">
@@ -28457,7 +28457,7 @@
       </c>
       <c r="L678" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="679" spans="1:12">
@@ -28497,7 +28497,7 @@
       </c>
       <c r="L679" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="680" spans="1:12">
@@ -28537,7 +28537,7 @@
       </c>
       <c r="L680" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="681" spans="1:12">
@@ -28577,7 +28577,7 @@
       </c>
       <c r="L681" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="682" spans="1:12">
@@ -28617,7 +28617,7 @@
       </c>
       <c r="L682" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="683" spans="1:12">
@@ -28657,7 +28657,7 @@
       </c>
       <c r="L683" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="684" spans="1:12">
@@ -28697,7 +28697,7 @@
       </c>
       <c r="L684" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="685" spans="1:12">
@@ -28737,7 +28737,7 @@
       </c>
       <c r="L685" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="686" spans="1:12">
@@ -28777,7 +28777,7 @@
       </c>
       <c r="L686" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="687" spans="1:12">
@@ -28857,7 +28857,7 @@
       </c>
       <c r="L688" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="689" spans="1:12">
@@ -28897,7 +28897,7 @@
       </c>
       <c r="L689" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="690" spans="1:12">
@@ -28937,7 +28937,7 @@
       </c>
       <c r="L690" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="691" spans="1:12">
@@ -28977,7 +28977,7 @@
       </c>
       <c r="L691" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="692" spans="1:12">
@@ -29017,7 +29017,7 @@
       </c>
       <c r="L692" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="693" spans="1:12">
@@ -29057,7 +29057,7 @@
       </c>
       <c r="L693" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="694" spans="1:12">
@@ -29097,7 +29097,7 @@
       </c>
       <c r="L694" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="695" spans="1:12">
@@ -29177,7 +29177,7 @@
       </c>
       <c r="L696" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="697" spans="1:12">
@@ -29217,7 +29217,7 @@
       </c>
       <c r="L697" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="698" spans="1:12">
@@ -29257,7 +29257,7 @@
       </c>
       <c r="L698" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="699" spans="1:12">
@@ -29297,7 +29297,7 @@
       </c>
       <c r="L699" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="700" spans="1:12">
@@ -29337,7 +29337,7 @@
       </c>
       <c r="L700" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="701" spans="1:12">
@@ -29377,7 +29377,7 @@
       </c>
       <c r="L701" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="702" spans="1:12">
@@ -29417,7 +29417,7 @@
       </c>
       <c r="L702" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="703" spans="1:12">
@@ -29457,7 +29457,7 @@
       </c>
       <c r="L703" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="704" spans="1:12">
@@ -29497,7 +29497,7 @@
       </c>
       <c r="L704" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="705" spans="1:12">
@@ -29537,7 +29537,7 @@
       </c>
       <c r="L705" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="706" spans="1:12">
@@ -29577,7 +29577,7 @@
       </c>
       <c r="L706" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="707" spans="1:12">
@@ -29617,7 +29617,7 @@
       </c>
       <c r="L707" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="708" spans="1:12">
@@ -29657,7 +29657,7 @@
       </c>
       <c r="L708" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="709" spans="1:12">
@@ -29777,7 +29777,7 @@
       </c>
       <c r="L711" t="str">
         <f t="shared" ref="L711:L774" ca="1" si="23">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="712" spans="1:12">
@@ -29817,7 +29817,7 @@
       </c>
       <c r="L712" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="713" spans="1:12">
@@ -29857,7 +29857,7 @@
       </c>
       <c r="L713" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="714" spans="1:12">
@@ -29897,7 +29897,7 @@
       </c>
       <c r="L714" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="715" spans="1:12">
@@ -29937,7 +29937,7 @@
       </c>
       <c r="L715" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="716" spans="1:12">
@@ -29977,7 +29977,7 @@
       </c>
       <c r="L716" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="717" spans="1:12">
@@ -30017,7 +30017,7 @@
       </c>
       <c r="L717" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="718" spans="1:12">
@@ -30097,7 +30097,7 @@
       </c>
       <c r="L719" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="720" spans="1:12">
@@ -30137,7 +30137,7 @@
       </c>
       <c r="L720" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="721" spans="1:12">
@@ -30177,7 +30177,7 @@
       </c>
       <c r="L721" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="722" spans="1:12">
@@ -30217,7 +30217,7 @@
       </c>
       <c r="L722" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="723" spans="1:12">
@@ -30257,7 +30257,7 @@
       </c>
       <c r="L723" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="724" spans="1:12">
@@ -30337,7 +30337,7 @@
       </c>
       <c r="L725" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="726" spans="1:12">
@@ -30377,7 +30377,7 @@
       </c>
       <c r="L726" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="727" spans="1:12">
@@ -30537,7 +30537,7 @@
       </c>
       <c r="L730" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="731" spans="1:12">
@@ -30577,7 +30577,7 @@
       </c>
       <c r="L731" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="732" spans="1:12">
@@ -30617,7 +30617,7 @@
       </c>
       <c r="L732" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="733" spans="1:12">
@@ -30697,7 +30697,7 @@
       </c>
       <c r="L734" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="735" spans="1:12">
@@ -30777,7 +30777,7 @@
       </c>
       <c r="L736" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="737" spans="1:12">
@@ -30817,7 +30817,7 @@
       </c>
       <c r="L737" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="738" spans="1:12">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="L738" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="739" spans="1:12">
@@ -30897,7 +30897,7 @@
       </c>
       <c r="L739" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="740" spans="1:12">
@@ -30937,7 +30937,7 @@
       </c>
       <c r="L740" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="741" spans="1:12">
@@ -31097,7 +31097,7 @@
       </c>
       <c r="L744" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="745" spans="1:12">
@@ -31137,7 +31137,7 @@
       </c>
       <c r="L745" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="746" spans="1:12">
@@ -31257,7 +31257,7 @@
       </c>
       <c r="L748" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="749" spans="1:12">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="L749" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="750" spans="1:12">
@@ -31337,7 +31337,7 @@
       </c>
       <c r="L750" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="751" spans="1:12">
@@ -31377,7 +31377,7 @@
       </c>
       <c r="L751" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="752" spans="1:12">
@@ -31417,7 +31417,7 @@
       </c>
       <c r="L752" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="753" spans="1:12">
@@ -31497,7 +31497,7 @@
       </c>
       <c r="L754" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="755" spans="1:12">
@@ -31577,7 +31577,7 @@
       </c>
       <c r="L756" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="757" spans="1:12">
@@ -31617,7 +31617,7 @@
       </c>
       <c r="L757" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="758" spans="1:12">
@@ -31657,7 +31657,7 @@
       </c>
       <c r="L758" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="759" spans="1:12">
@@ -31697,7 +31697,7 @@
       </c>
       <c r="L759" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="760" spans="1:12">
@@ -31737,7 +31737,7 @@
       </c>
       <c r="L760" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="761" spans="1:12">
@@ -31777,7 +31777,7 @@
       </c>
       <c r="L761" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="762" spans="1:12">
@@ -31817,7 +31817,7 @@
       </c>
       <c r="L762" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="763" spans="1:12">
@@ -31857,7 +31857,7 @@
       </c>
       <c r="L763" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="764" spans="1:12">
@@ -31897,7 +31897,7 @@
       </c>
       <c r="L764" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="765" spans="1:12">
@@ -31977,7 +31977,7 @@
       </c>
       <c r="L766" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="767" spans="1:12">
@@ -32017,7 +32017,7 @@
       </c>
       <c r="L767" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="768" spans="1:12">
@@ -32097,7 +32097,7 @@
       </c>
       <c r="L769" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="770" spans="1:12">
@@ -32217,7 +32217,7 @@
       </c>
       <c r="L772" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="773" spans="1:12">
@@ -32257,7 +32257,7 @@
       </c>
       <c r="L773" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="774" spans="1:12">
@@ -32417,7 +32417,7 @@
       </c>
       <c r="L777" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="778" spans="1:12">
@@ -32457,7 +32457,7 @@
       </c>
       <c r="L778" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="779" spans="1:12">
@@ -32497,7 +32497,7 @@
       </c>
       <c r="L779" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="780" spans="1:12">
@@ -32537,7 +32537,7 @@
       </c>
       <c r="L780" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="781" spans="1:12">
@@ -32577,7 +32577,7 @@
       </c>
       <c r="L781" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="782" spans="1:12">
@@ -32617,7 +32617,7 @@
       </c>
       <c r="L782" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="783" spans="1:12">
@@ -32657,7 +32657,7 @@
       </c>
       <c r="L783" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="784" spans="1:12">
@@ -32697,7 +32697,7 @@
       </c>
       <c r="L784" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="785" spans="1:12">
@@ -32737,7 +32737,7 @@
       </c>
       <c r="L785" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="786" spans="1:12">
@@ -32817,7 +32817,7 @@
       </c>
       <c r="L787" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="788" spans="1:12">
@@ -32857,7 +32857,7 @@
       </c>
       <c r="L788" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="789" spans="1:12">
@@ -32897,7 +32897,7 @@
       </c>
       <c r="L789" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="790" spans="1:12">
@@ -32937,7 +32937,7 @@
       </c>
       <c r="L790" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="791" spans="1:12">
@@ -32977,7 +32977,7 @@
       </c>
       <c r="L791" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="792" spans="1:12">
@@ -33017,7 +33017,7 @@
       </c>
       <c r="L792" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="793" spans="1:12">
@@ -33057,7 +33057,7 @@
       </c>
       <c r="L793" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="794" spans="1:12">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="L795" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="796" spans="1:12">
@@ -33257,7 +33257,7 @@
       </c>
       <c r="L798" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="799" spans="1:12">
@@ -33297,7 +33297,7 @@
       </c>
       <c r="L799" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="800" spans="1:12">
@@ -33337,7 +33337,7 @@
       </c>
       <c r="L800" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="801" spans="1:12">
@@ -33417,7 +33417,7 @@
       </c>
       <c r="L802" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="803" spans="1:12">
@@ -33457,7 +33457,7 @@
       </c>
       <c r="L803" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="804" spans="1:12">
@@ -33497,7 +33497,7 @@
       </c>
       <c r="L804" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="805" spans="1:12">
@@ -33537,7 +33537,7 @@
       </c>
       <c r="L805" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="806" spans="1:12">
@@ -33617,7 +33617,7 @@
       </c>
       <c r="L807" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="808" spans="1:12">
@@ -33657,7 +33657,7 @@
       </c>
       <c r="L808" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="809" spans="1:12">
@@ -33697,7 +33697,7 @@
       </c>
       <c r="L809" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="810" spans="1:12">
@@ -33737,7 +33737,7 @@
       </c>
       <c r="L810" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="811" spans="1:12">
@@ -33777,7 +33777,7 @@
       </c>
       <c r="L811" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="812" spans="1:12">
@@ -33817,7 +33817,7 @@
       </c>
       <c r="L812" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="813" spans="1:12">
@@ -33857,7 +33857,7 @@
       </c>
       <c r="L813" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="814" spans="1:12">
@@ -33897,7 +33897,7 @@
       </c>
       <c r="L814" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="815" spans="1:12">
@@ -33937,7 +33937,7 @@
       </c>
       <c r="L815" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="816" spans="1:12">
@@ -34011,7 +34011,7 @@
       </c>
       <c r="L817" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="818" spans="1:12">
@@ -34048,7 +34048,7 @@
       </c>
       <c r="L818" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="819" spans="1:12">
@@ -34085,7 +34085,7 @@
       </c>
       <c r="L819" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="820" spans="1:12">
@@ -34122,7 +34122,7 @@
       </c>
       <c r="L820" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="821" spans="1:12">
@@ -34159,7 +34159,7 @@
       </c>
       <c r="L821" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="822" spans="1:12">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="L822" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="823" spans="1:12">
@@ -34233,7 +34233,7 @@
       </c>
       <c r="L823" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="824" spans="1:12">
@@ -34270,7 +34270,7 @@
       </c>
       <c r="L824" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="825" spans="1:12">
@@ -34307,7 +34307,7 @@
       </c>
       <c r="L825" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="826" spans="1:12">
@@ -34387,7 +34387,7 @@
       </c>
       <c r="L827" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="828" spans="1:12">
@@ -34427,7 +34427,7 @@
       </c>
       <c r="L828" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="829" spans="1:12">
@@ -34467,7 +34467,7 @@
       </c>
       <c r="L829" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="830" spans="1:12">
@@ -34507,7 +34507,7 @@
       </c>
       <c r="L830" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="831" spans="1:12">
@@ -34547,7 +34547,7 @@
       </c>
       <c r="L831" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="832" spans="1:12">
@@ -34587,7 +34587,7 @@
       </c>
       <c r="L832" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="833" spans="1:12">
@@ -34627,7 +34627,7 @@
       </c>
       <c r="L833" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="834" spans="1:12">
@@ -34667,7 +34667,7 @@
       </c>
       <c r="L834" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="835" spans="1:12">
@@ -34747,7 +34747,7 @@
       </c>
       <c r="L836" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="837" spans="1:12">
@@ -34787,7 +34787,7 @@
       </c>
       <c r="L837" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="838" spans="1:12">
@@ -34827,7 +34827,7 @@
       </c>
       <c r="L838" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="839" spans="1:12">
@@ -34907,7 +34907,7 @@
       </c>
       <c r="L840" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="841" spans="1:12">
@@ -34947,7 +34947,7 @@
       </c>
       <c r="L841" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="842" spans="1:12">
@@ -35027,7 +35027,7 @@
       </c>
       <c r="L843" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="844" spans="1:12">
@@ -35067,7 +35067,7 @@
       </c>
       <c r="L844" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="845" spans="1:12">
@@ -35107,7 +35107,7 @@
       </c>
       <c r="L845" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="846" spans="1:12">
@@ -35147,7 +35147,7 @@
       </c>
       <c r="L846" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="847" spans="1:12">
@@ -35187,7 +35187,7 @@
       </c>
       <c r="L847" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="848" spans="1:12">
@@ -35227,7 +35227,7 @@
       </c>
       <c r="L848" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="849" spans="1:12">
@@ -35347,7 +35347,7 @@
       </c>
       <c r="L851" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="852" spans="1:12">
@@ -35387,7 +35387,7 @@
       </c>
       <c r="L852" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="853" spans="1:12">
@@ -35467,7 +35467,7 @@
       </c>
       <c r="L854" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="855" spans="1:12">
@@ -35547,7 +35547,7 @@
       </c>
       <c r="L856" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="857" spans="1:12">
@@ -35667,7 +35667,7 @@
       </c>
       <c r="L859" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="860" spans="1:12">
@@ -35707,7 +35707,7 @@
       </c>
       <c r="L860" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="861" spans="1:12">
@@ -35747,7 +35747,7 @@
       </c>
       <c r="L861" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="862" spans="1:12">
@@ -35787,7 +35787,7 @@
       </c>
       <c r="L862" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="863" spans="1:12">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="L863" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="864" spans="1:12">
@@ -35867,7 +35867,7 @@
       </c>
       <c r="L864" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="865" spans="1:12">
@@ -35907,7 +35907,7 @@
       </c>
       <c r="L865" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="866" spans="1:12">
@@ -35944,7 +35944,7 @@
       </c>
       <c r="L866" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="867" spans="1:12">
@@ -35981,7 +35981,7 @@
       </c>
       <c r="L867" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="868" spans="1:12">
@@ -36018,7 +36018,7 @@
       </c>
       <c r="L868" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="869" spans="1:12">
@@ -36055,7 +36055,7 @@
       </c>
       <c r="L869" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="870" spans="1:12">
@@ -36092,7 +36092,7 @@
       </c>
       <c r="L870" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="871" spans="1:12">
@@ -36129,7 +36129,7 @@
       </c>
       <c r="L871" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="872" spans="1:12">
@@ -36203,7 +36203,7 @@
       </c>
       <c r="L873" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="874" spans="1:12">
@@ -36240,7 +36240,7 @@
       </c>
       <c r="L874" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="875" spans="1:12">
@@ -36277,7 +36277,7 @@
       </c>
       <c r="L875" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="876" spans="1:12">
@@ -36357,7 +36357,7 @@
       </c>
       <c r="L877" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="878" spans="1:12">
@@ -36397,7 +36397,7 @@
       </c>
       <c r="L878" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="879" spans="1:12">
@@ -36437,7 +36437,7 @@
       </c>
       <c r="L879" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="880" spans="1:12">
@@ -36477,7 +36477,7 @@
       </c>
       <c r="L880" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="881" spans="1:12">
@@ -36557,7 +36557,7 @@
       </c>
       <c r="L882" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="883" spans="1:12">
@@ -36597,7 +36597,7 @@
       </c>
       <c r="L883" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="884" spans="1:12">
@@ -36677,7 +36677,7 @@
       </c>
       <c r="L885" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="886" spans="1:12">
@@ -36717,7 +36717,7 @@
       </c>
       <c r="L886" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="887" spans="1:12">
@@ -36757,7 +36757,7 @@
       </c>
       <c r="L887" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="888" spans="1:12">
@@ -36797,7 +36797,7 @@
       </c>
       <c r="L888" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="889" spans="1:12">
@@ -36837,7 +36837,7 @@
       </c>
       <c r="L889" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="890" spans="1:12">
@@ -36877,7 +36877,7 @@
       </c>
       <c r="L890" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="891" spans="1:12">
@@ -36917,7 +36917,7 @@
       </c>
       <c r="L891" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="892" spans="1:12">
@@ -36997,7 +36997,7 @@
       </c>
       <c r="L893" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="894" spans="1:12">
@@ -37037,7 +37037,7 @@
       </c>
       <c r="L894" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="895" spans="1:12">
@@ -37151,7 +37151,7 @@
       </c>
       <c r="L897" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="898" spans="1:12">
@@ -37188,7 +37188,7 @@
       </c>
       <c r="L898" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="899" spans="1:12">
@@ -37262,7 +37262,7 @@
       </c>
       <c r="L900" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="901" spans="1:12">
@@ -37299,7 +37299,7 @@
       </c>
       <c r="L901" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="902" spans="1:12">
@@ -37336,7 +37336,7 @@
       </c>
       <c r="L902" t="str">
         <f t="shared" ca="1" si="27"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="903" spans="1:12">
@@ -37373,7 +37373,7 @@
       </c>
       <c r="L903" t="str">
         <f t="shared" ref="L903:L966" ca="1" si="29">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="904" spans="1:12">
@@ -37410,7 +37410,7 @@
       </c>
       <c r="L904" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="905" spans="1:12">
@@ -37484,7 +37484,7 @@
       </c>
       <c r="L906" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="907" spans="1:12">
@@ -37521,7 +37521,7 @@
       </c>
       <c r="L907" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="908" spans="1:12">
@@ -37558,7 +37558,7 @@
       </c>
       <c r="L908" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="909" spans="1:12">
@@ -37632,7 +37632,7 @@
       </c>
       <c r="L910" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="911" spans="1:12">
@@ -37706,7 +37706,7 @@
       </c>
       <c r="L912" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="913" spans="1:12">
@@ -37743,7 +37743,7 @@
       </c>
       <c r="L913" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="914" spans="1:12">
@@ -37817,7 +37817,7 @@
       </c>
       <c r="L915" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="916" spans="1:12">
@@ -37854,7 +37854,7 @@
       </c>
       <c r="L916" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="917" spans="1:12">
@@ -37891,7 +37891,7 @@
       </c>
       <c r="L917" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="918" spans="1:12">
@@ -37928,7 +37928,7 @@
       </c>
       <c r="L918" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="919" spans="1:12">
@@ -38039,7 +38039,7 @@
       </c>
       <c r="L921" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="922" spans="1:12">
@@ -38076,7 +38076,7 @@
       </c>
       <c r="L922" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="923" spans="1:12">
@@ -38113,7 +38113,7 @@
       </c>
       <c r="L923" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="924" spans="1:12">
@@ -38150,7 +38150,7 @@
       </c>
       <c r="L924" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="925" spans="1:12">
@@ -38227,7 +38227,7 @@
       </c>
       <c r="L926" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="927" spans="1:12">
@@ -38267,7 +38267,7 @@
       </c>
       <c r="L927" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="928" spans="1:12">
@@ -38387,7 +38387,7 @@
       </c>
       <c r="L930" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="931" spans="1:12">
@@ -38427,7 +38427,7 @@
       </c>
       <c r="L931" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="932" spans="1:12">
@@ -38507,7 +38507,7 @@
       </c>
       <c r="L933" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="934" spans="1:12">
@@ -38547,7 +38547,7 @@
       </c>
       <c r="L934" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="935" spans="1:12">
@@ -38587,7 +38587,7 @@
       </c>
       <c r="L935" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="936" spans="1:12">
@@ -38627,7 +38627,7 @@
       </c>
       <c r="L936" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="937" spans="1:12">
@@ -38667,7 +38667,7 @@
       </c>
       <c r="L937" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="938" spans="1:12">
@@ -38707,7 +38707,7 @@
       </c>
       <c r="L938" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="939" spans="1:12">
@@ -38747,7 +38747,7 @@
       </c>
       <c r="L939" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="940" spans="1:12">
@@ -38787,7 +38787,7 @@
       </c>
       <c r="L940" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="941" spans="1:12">
@@ -38827,7 +38827,7 @@
       </c>
       <c r="L941" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="942" spans="1:12">
@@ -38907,7 +38907,7 @@
       </c>
       <c r="L943" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="944" spans="1:12">
@@ -38947,7 +38947,7 @@
       </c>
       <c r="L944" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="945" spans="1:12">
@@ -38987,7 +38987,7 @@
       </c>
       <c r="L945" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="946" spans="1:12">
@@ -39027,7 +39027,7 @@
       </c>
       <c r="L946" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="947" spans="1:12">
@@ -39067,7 +39067,7 @@
       </c>
       <c r="L947" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="948" spans="1:12">
@@ -39107,7 +39107,7 @@
       </c>
       <c r="L948" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="949" spans="1:12">
@@ -39227,7 +39227,7 @@
       </c>
       <c r="L951" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="952" spans="1:12">
@@ -39307,7 +39307,7 @@
       </c>
       <c r="L953" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="954" spans="1:12">
@@ -39347,7 +39347,7 @@
       </c>
       <c r="L954" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="955" spans="1:12">
@@ -39387,7 +39387,7 @@
       </c>
       <c r="L955" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="956" spans="1:12">
@@ -39427,7 +39427,7 @@
       </c>
       <c r="L956" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="957" spans="1:12">
@@ -39467,7 +39467,7 @@
       </c>
       <c r="L957" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="958" spans="1:12">
@@ -39587,7 +39587,7 @@
       </c>
       <c r="L960" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="961" spans="1:12">
@@ -39627,7 +39627,7 @@
       </c>
       <c r="L961" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="962" spans="1:12">
@@ -39667,7 +39667,7 @@
       </c>
       <c r="L962" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="963" spans="1:12">
@@ -39707,7 +39707,7 @@
       </c>
       <c r="L963" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="964" spans="1:12">
@@ -39747,7 +39747,7 @@
       </c>
       <c r="L964" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="965" spans="1:12">
@@ -39787,7 +39787,7 @@
       </c>
       <c r="L965" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="966" spans="1:12">
@@ -39827,7 +39827,7 @@
       </c>
       <c r="L966" t="str">
         <f t="shared" ca="1" si="29"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="967" spans="1:12">
@@ -39867,7 +39867,7 @@
       </c>
       <c r="L967" t="str">
         <f t="shared" ref="L967:L1025" ca="1" si="31">INDIRECT(ADDRESS(RANDBETWEEN(2,5),1,1,FALSE,"Taxa"), FALSE)</f>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="968" spans="1:12">
@@ -39907,7 +39907,7 @@
       </c>
       <c r="L968" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="969" spans="1:12">
@@ -39947,7 +39947,7 @@
       </c>
       <c r="L969" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="970" spans="1:12">
@@ -39987,7 +39987,7 @@
       </c>
       <c r="L970" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="971" spans="1:12">
@@ -40027,7 +40027,7 @@
       </c>
       <c r="L971" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="972" spans="1:12">
@@ -40067,7 +40067,7 @@
       </c>
       <c r="L972" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="973" spans="1:12">
@@ -40107,7 +40107,7 @@
       </c>
       <c r="L973" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="974" spans="1:12">
@@ -40147,7 +40147,7 @@
       </c>
       <c r="L974" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="975" spans="1:12">
@@ -40187,7 +40187,7 @@
       </c>
       <c r="L975" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="976" spans="1:12">
@@ -40267,7 +40267,7 @@
       </c>
       <c r="L977" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="978" spans="1:12">
@@ -40307,7 +40307,7 @@
       </c>
       <c r="L978" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="979" spans="1:12">
@@ -40347,7 +40347,7 @@
       </c>
       <c r="L979" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="980" spans="1:12">
@@ -40427,7 +40427,7 @@
       </c>
       <c r="L981" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="982" spans="1:12">
@@ -40467,7 +40467,7 @@
       </c>
       <c r="L982" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="983" spans="1:12">
@@ -40547,7 +40547,7 @@
       </c>
       <c r="L984" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="985" spans="1:12">
@@ -40587,7 +40587,7 @@
       </c>
       <c r="L985" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="986" spans="1:12">
@@ -40624,7 +40624,7 @@
       </c>
       <c r="L986" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="987" spans="1:12">
@@ -40661,7 +40661,7 @@
       </c>
       <c r="L987" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Dolichoderus sp.</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="988" spans="1:12">
@@ -40698,7 +40698,7 @@
       </c>
       <c r="L988" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="989" spans="1:12">
@@ -40735,7 +40735,7 @@
       </c>
       <c r="L989" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="990" spans="1:12">
@@ -40772,7 +40772,7 @@
       </c>
       <c r="L990" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="991" spans="1:12">
@@ -40809,7 +40809,7 @@
       </c>
       <c r="L991" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="992" spans="1:12">
@@ -40846,7 +40846,7 @@
       </c>
       <c r="L992" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="993" spans="1:12">
@@ -40883,7 +40883,7 @@
       </c>
       <c r="L993" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="994" spans="1:12">
@@ -40920,7 +40920,7 @@
       </c>
       <c r="L994" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="995" spans="1:12">
@@ -40957,7 +40957,7 @@
       </c>
       <c r="L995" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="996" spans="1:12">
@@ -40997,7 +40997,7 @@
       </c>
       <c r="L996" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="997" spans="1:12">
@@ -41037,7 +41037,7 @@
       </c>
       <c r="L997" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="998" spans="1:12">
@@ -41117,7 +41117,7 @@
       </c>
       <c r="L999" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Morphospecies 1</v>
       </c>
     </row>
     <row r="1000" spans="1:12">
@@ -41237,7 +41237,7 @@
       </c>
       <c r="L1002" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="1003" spans="1:12">
@@ -41357,7 +41357,7 @@
       </c>
       <c r="L1005" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="1006" spans="1:12">
@@ -41437,7 +41437,7 @@
       </c>
       <c r="L1007" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="1008" spans="1:12">
@@ -41477,7 +41477,7 @@
       </c>
       <c r="L1008" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="1009" spans="1:12">
@@ -41557,7 +41557,7 @@
       </c>
       <c r="L1010" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="1011" spans="1:12">
@@ -41637,7 +41637,7 @@
       </c>
       <c r="L1012" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Dolichoderus sp.</v>
+        <v>Crematogaster borneensis</v>
       </c>
     </row>
     <row r="1013" spans="1:12">
@@ -41677,7 +41677,7 @@
       </c>
       <c r="L1013" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="1014" spans="1:12">
@@ -41717,7 +41717,7 @@
       </c>
       <c r="L1014" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="1015" spans="1:12">
@@ -41757,7 +41757,7 @@
       </c>
       <c r="L1015" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Crematogaster borneensis</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="1016" spans="1:12">
@@ -41797,7 +41797,7 @@
       </c>
       <c r="L1016" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="1017" spans="1:12">
@@ -41837,7 +41837,7 @@
       </c>
       <c r="L1017" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="1018" spans="1:12">
@@ -41877,7 +41877,7 @@
       </c>
       <c r="L1018" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Dolichoderus sp.</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="1019" spans="1:12">
@@ -41997,7 +41997,7 @@
       </c>
       <c r="L1021" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
     <row r="1022" spans="1:12">
@@ -42037,7 +42037,7 @@
       </c>
       <c r="L1022" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="1023" spans="1:12">
@@ -42077,7 +42077,7 @@
       </c>
       <c r="L1023" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Formicidae #1</v>
+        <v>Dolichoderus sp.</v>
       </c>
     </row>
     <row r="1024" spans="1:12">
@@ -42157,7 +42157,7 @@
       </c>
       <c r="L1025" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Morphospecies 1</v>
+        <v>Formicidae #1</v>
       </c>
     </row>
   </sheetData>
